--- a/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5412</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7965</t>
+          <t>7999</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4929</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7382</t>
+          <t>7185</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10768</t>
+          <t>10303</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>7873</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14040</t>
+          <t>13719</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>139971</t>
+          <t>157389</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>137845</t>
+          <t>154802</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>141816</t>
+          <t>159042</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>137962</t>
+          <t>163676</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>135509</t>
+          <t>161382</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>139661</t>
+          <t>165388</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>277933</t>
+          <t>321065</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>274661</t>
+          <t>317649</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>280501</t>
+          <t>323495</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>4808</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,67 +1113,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2253</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6041</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6482</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4650</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
           <t>2,18%</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>6190</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>8857</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78894</t>
+          <t>87677</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77207</t>
+          <t>85617</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79911</t>
+          <t>88899</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,67 +1226,67 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>118934</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>103076</t>
+          <t>116749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>106742</t>
+          <t>120415</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
+          <t>98,16%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>206611</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>203670</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>208443</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>96,96%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>95,58%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
           <t>97,82%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>1131</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>184099</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>181432</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>186042</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>96,75%</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="inlineStr">
-        <is>
-          <t>95,35%</t>
-        </is>
-      </c>
-      <c r="W8" s="2" t="inlineStr">
-        <is>
-          <t>97,77%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>5697</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8641</t>
+          <t>8099</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>5647</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9105</t>
+          <t>9157</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6696</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11910</t>
+          <t>12243</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>157857</t>
+          <t>148187</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>155215</t>
+          <t>145785</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>159496</t>
+          <t>149882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60039</t>
+          <t>58157</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57945</t>
+          <t>55970</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61306</t>
+          <t>59574</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>217896</t>
+          <t>206344</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>215091</t>
+          <t>203258</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>220305</t>
+          <t>208430</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,22 +1764,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5086</t>
+          <t>4840</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7677</t>
+          <t>8605</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>6350</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10503</t>
+          <t>11558</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>10912</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8332</t>
+          <t>9145</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>14197</t>
+          <t>15169</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -1877,27 +1877,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>166854</t>
+          <t>166554</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>165003</t>
+          <t>164879</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168137</t>
+          <t>167761</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>169506</t>
+          <t>173585</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>166680</t>
+          <t>170632</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>171601</t>
+          <t>175840</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>336359</t>
+          <t>340139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>333074</t>
+          <t>336740</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>338939</t>
+          <t>342764</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,4%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5126</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>4794</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10071</t>
+          <t>9195</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10434</t>
+          <t>9494</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7879</t>
+          <t>7303</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13597</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>71696</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71725</t>
+          <t>70106</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75072</t>
+          <t>72824</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>125427</t>
+          <t>118677</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>122861</t>
+          <t>116221</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>127566</t>
+          <t>120622</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>199349</t>
+          <t>190373</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>196186</t>
+          <t>187466</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>192564</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,22 +2450,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>807</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2197</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5794</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7510</t>
+          <t>7583</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>43905</t>
+          <t>53769</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42431</t>
+          <t>51968</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44606</t>
+          <t>54796</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114662</t>
+          <t>119025</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112483</t>
+          <t>116928</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116080</t>
+          <t>120275</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,17 +2633,17 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>158567</t>
+          <t>172794</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>156028</t>
+          <t>170621</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>160159</t>
+          <t>174770</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,07%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21636</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17861</t>
+          <t>18091</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25727</t>
+          <t>26041</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,67 +2828,67 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30743</t>
+          <t>31004</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26239</t>
+          <t>26515</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36261</t>
+          <t>36005</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>52615</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>46700</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>58738</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
           <t>3,53%</t>
         </is>
       </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>307</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>52379</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>46043</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>58598</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>661403</t>
+          <t>685273</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>657312</t>
+          <t>680842</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>665178</t>
+          <t>688792</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,67 +2941,67 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>712801</t>
+          <t>752055</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>707283</t>
+          <t>747054</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>717305</t>
+          <t>756544</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
+          <t>96,61%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1437326</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1431203</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1443241</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
           <t>96,47%</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>8082</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>1374204</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>1367985</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>1380540</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>96,33%</t>
-        </is>
-      </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22600</t>
+          <t>21613</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10323</t>
+          <t>10373</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24359</t>
+          <t>23424</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18074</t>
+          <t>18012</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>38378</t>
+          <t>39544</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>344083</t>
+          <t>345070</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>361490</t>
+          <t>361261</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>274542</t>
+          <t>275477</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>288578</t>
+          <t>288528</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>627206</t>
+          <t>626040</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>647510</t>
+          <t>647572</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19553</t>
+          <t>18916</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11936</t>
+          <t>12453</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27448</t>
+          <t>26723</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20683</t>
+          <t>21402</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40831</t>
+          <t>41100</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>304494</t>
+          <t>305131</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>318181</t>
+          <t>317807</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>232633</t>
+          <t>233358</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248145</t>
+          <t>247628</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>543297</t>
+          <t>543028</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>563445</t>
+          <t>562726</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,34%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>661</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20948</t>
+          <t>21366</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2789</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10384</t>
+          <t>10139</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28885</t>
+          <t>28502</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>454476</t>
+          <t>454058</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>474315</t>
+          <t>474763</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87180</t>
+          <t>87425</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94775</t>
+          <t>94697</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>544103</t>
+          <t>544486</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>569646</t>
+          <t>569720</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,43%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11673</t>
+          <t>12485</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33959</t>
+          <t>32895</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>7545</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35925</t>
+          <t>35350</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21712</t>
+          <t>22312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>57224</t>
+          <t>57030</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>502196</t>
+          <t>503260</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>524482</t>
+          <t>523670</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>600383</t>
+          <t>600958</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>628304</t>
+          <t>628763</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1115238</t>
+          <t>1115432</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1150750</t>
+          <t>1150150</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,1%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18364</t>
+          <t>17955</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>17224</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>216084</t>
+          <t>223212</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25336</t>
+          <t>25748</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>280766</t>
+          <t>283275</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>44,63%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>192368</t>
+          <t>192777</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>206398</t>
+          <t>206167</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>207865</t>
+          <t>200737</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>406453</t>
+          <t>406725</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>353915</t>
+          <t>351406</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>609345</t>
+          <t>608933</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>95,94%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26773</t>
+          <t>26105</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12075</t>
+          <t>12806</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29201</t>
+          <t>30768</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17442</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>47484</t>
+          <t>48672</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>139988</t>
+          <t>140656</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>164569</t>
+          <t>164823</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>460767</t>
+          <t>459200</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>477893</t>
+          <t>477162</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>609245</t>
+          <t>608057</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>639287</t>
+          <t>637829</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,12%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44373</t>
+          <t>41558</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>92304</t>
+          <t>89720</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>91643</t>
+          <t>90865</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>413733</t>
+          <t>384437</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>155080</t>
+          <t>155752</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>505807</t>
+          <t>477545</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1987498</t>
+          <t>1990082</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2035429</t>
+          <t>2038244</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1793038</t>
+          <t>1822334</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2115128</t>
+          <t>2115906</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>82,58%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3780766</t>
+          <t>3809028</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4131493</t>
+          <t>4130821</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5412</t>
+          <t>11400</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>19982</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>17588</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>11416</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7185</t>
+          <t>26518</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10303</t>
+          <t>28989</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7873</t>
+          <t>20206</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13719</t>
+          <t>41358</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>157389</t>
+          <t>383987</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>154802</t>
+          <t>375405</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159042</t>
+          <t>389792</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>431</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>163676</t>
+          <t>310038</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161382</t>
+          <t>301108</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>165388</t>
+          <t>316210</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>321065</t>
+          <t>694024</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>317649</t>
+          <t>681655</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>323495</t>
+          <t>702807</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,21%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>12278</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>6754</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4808</t>
+          <t>20452</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>20497</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2253</t>
+          <t>13681</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>29278</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6482</t>
+          <t>32775</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>23453</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>43779</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87677</t>
+          <t>332069</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85617</t>
+          <t>323895</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88899</t>
+          <t>337593</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>118934</t>
+          <t>266443</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116749</t>
+          <t>257662</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120415</t>
+          <t>273259</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>206611</t>
+          <t>598512</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>203670</t>
+          <t>587508</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>208443</t>
+          <t>607834</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5697</t>
+          <t>9294</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>3862</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8099</t>
+          <t>17486</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5647</t>
+          <t>11895</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9157</t>
+          <t>16197</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7071</t>
+          <t>9972</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12243</t>
+          <t>25776</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>148187</t>
+          <t>251262</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>243070</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149882</t>
+          <t>256694</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58157</t>
+          <t>104583</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55970</t>
+          <t>99591</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59574</t>
+          <t>108040</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>206344</t>
+          <t>355846</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>203258</t>
+          <t>346267</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>208430</t>
+          <t>362071</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,102 +1764,102 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>24133</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>38525</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8605</t>
+          <t>23825</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6350</t>
+          <t>16447</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11558</t>
+          <t>32654</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>11770</t>
+          <t>47958</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9145</t>
+          <t>36277</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15169</t>
+          <t>65138</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>543</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>166554</t>
+          <t>585849</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>164879</t>
+          <t>571457</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>167761</t>
+          <t>594630</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>173585</t>
+          <t>465997</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>170632</t>
+          <t>457168</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>175840</t>
+          <t>473375</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>340139</t>
+          <t>1051845</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>336740</t>
+          <t>1034665</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>342764</t>
+          <t>1063526</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>9524</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>17782</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6739</t>
+          <t>23574</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>15962</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9195</t>
+          <t>32086</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9494</t>
+          <t>33098</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7303</t>
+          <t>24887</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>45008</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71696</t>
+          <t>243322</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70106</t>
+          <t>235064</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72824</t>
+          <t>248323</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>552</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>118677</t>
+          <t>384445</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>116221</t>
+          <t>375933</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>120622</t>
+          <t>392057</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>190373</t>
+          <t>627768</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187466</t>
+          <t>615858</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>192564</t>
+          <t>635979</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,23%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,72 +2445,72 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>6827</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>17951</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>19961</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>13341</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>31453</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>26787</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>18445</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7583</t>
+          <t>42761</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -2558,37 +2558,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>53769</t>
+          <t>162670</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51968</t>
+          <t>151546</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54796</t>
+          <t>167829</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,67 +2598,67 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>119025</t>
+          <t>526913</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>116928</t>
+          <t>515421</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>120275</t>
+          <t>533533</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>745</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>172794</t>
+          <t>689584</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>170621</t>
+          <t>673610</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>174770</t>
+          <t>697926</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21610</t>
+          <t>73456</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18091</t>
+          <t>56903</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26041</t>
+          <t>95599</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31004</t>
+          <t>112348</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26515</t>
+          <t>95250</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36005</t>
+          <t>133270</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>52615</t>
+          <t>185804</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>46700</t>
+          <t>160739</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>58738</t>
+          <t>212796</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>685273</t>
+          <t>1959159</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>680842</t>
+          <t>1937016</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>688792</t>
+          <t>1975712</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>752055</t>
+          <t>2058420</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>747054</t>
+          <t>2037498</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>756544</t>
+          <t>2075518</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8082</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1437326</t>
+          <t>4017579</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1431203</t>
+          <t>3990587</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1443241</t>
+          <t>4042644</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10685</t>
+          <t>10988</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5422</t>
+          <t>6522</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21613</t>
+          <t>18821</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15876</t>
+          <t>19386</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10373</t>
+          <t>13794</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23424</t>
+          <t>27928</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30374</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>22949</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>40614</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>5,31%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>26561</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>18012</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>39544</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>355998</t>
+          <t>284535</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>345070</t>
+          <t>276702</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>361261</t>
+          <t>289001</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>435</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>283025</t>
+          <t>257314</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>275477</t>
+          <t>248772</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>288528</t>
+          <t>262906</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>92,99%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>89,91%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>541848</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>531608</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>549273</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>94,69%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>92,16%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>96,53%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>819</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>639023</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>626040</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>647572</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>96,01%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11199</t>
+          <t>6302</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18916</t>
+          <t>10283</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18534</t>
+          <t>13615</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12453</t>
+          <t>8565</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26723</t>
+          <t>21775</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>29734</t>
+          <t>19916</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>21402</t>
+          <t>13819</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>28238</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>312848</t>
+          <t>189470</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>305131</t>
+          <t>185489</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>317807</t>
+          <t>192188</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>241547</t>
+          <t>218364</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>233358</t>
+          <t>210204</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>247628</t>
+          <t>223414</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>707</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>554394</t>
+          <t>407834</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>543028</t>
+          <t>399512</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>562726</t>
+          <t>413931</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,77%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7846</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21366</t>
+          <t>9995</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>4551</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10139</t>
+          <t>8534</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13640</t>
+          <t>10385</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>6595</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28502</t>
+          <t>15585</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>467578</t>
+          <t>175037</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>454058</t>
+          <t>170876</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>474763</t>
+          <t>177807</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91769</t>
+          <t>78249</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87425</t>
+          <t>74266</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94697</t>
+          <t>80639</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>480</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>559348</t>
+          <t>253287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>544486</t>
+          <t>248087</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>569720</t>
+          <t>257077</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19492</t>
+          <t>16458</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12485</t>
+          <t>11149</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32895</t>
+          <t>24223</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20576</t>
+          <t>20395</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7545</t>
+          <t>14813</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35350</t>
+          <t>27846</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>40068</t>
+          <t>36854</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22312</t>
+          <t>28092</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>57030</t>
+          <t>47057</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,54%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>516663</t>
+          <t>291975</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>503260</t>
+          <t>284210</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>523670</t>
+          <t>297284</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>516</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>615732</t>
+          <t>295568</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>600958</t>
+          <t>288117</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>628763</t>
+          <t>301150</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1132394</t>
+          <t>587542</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1115432</t>
+          <t>577339</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1150150</t>
+          <t>596304</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>95,5%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9216</t>
+          <t>7873</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17955</t>
+          <t>13156</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>85673</t>
+          <t>10182</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17224</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>223212</t>
+          <t>16316</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>94890</t>
+          <t>18055</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25748</t>
+          <t>12476</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>283275</t>
+          <t>25306</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>201516</t>
+          <t>142412</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>137129</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>206167</t>
+          <t>145853</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>338276</t>
+          <t>144886</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>200737</t>
+          <t>138752</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>406725</t>
+          <t>149120</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>497</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>539791</t>
+          <t>287299</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>351406</t>
+          <t>280048</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>608933</t>
+          <t>292878</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>95,91%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8947</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26105</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19337</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12806</t>
+          <t>212</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30768</t>
+          <t>4962</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>28284</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>948</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>48672</t>
+          <t>6375</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>30,67%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>157814</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>140656</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>164823</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>470631</t>
+          <t>9788</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>459200</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>477162</t>
+          <t>11222</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>56,6%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>628445</t>
+          <t>17801</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>608057</t>
+          <t>14407</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>637829</t>
+          <t>19834</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>67385</t>
+          <t>48789</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>41558</t>
+          <t>40291</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>89720</t>
+          <t>62085</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>165792</t>
+          <t>69776</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>90865</t>
+          <t>58138</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>384437</t>
+          <t>84428</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>213</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>233176</t>
+          <t>118565</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>155752</t>
+          <t>102678</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>477545</t>
+          <t>138101</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2012417</t>
+          <t>1091442</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1990082</t>
+          <t>1078146</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2038244</t>
+          <t>1099940</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2040979</t>
+          <t>1004169</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1822334</t>
+          <t>989517</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2115906</t>
+          <t>1015807</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4053397</t>
+          <t>2095611</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3809028</t>
+          <t>2076075</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4130821</t>
+          <t>2111498</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>5412</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6522</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18821</t>
+          <t>7999</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19386</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13794</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27928</t>
+          <t>7185</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>30374</t>
+          <t>10303</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22949</t>
+          <t>7873</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40614</t>
+          <t>13719</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>284535</t>
+          <t>157389</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>276702</t>
+          <t>154802</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>289001</t>
+          <t>159042</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>851</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>257314</t>
+          <t>163676</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>248772</t>
+          <t>161382</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>262906</t>
+          <t>165388</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>541848</t>
+          <t>321065</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>531608</t>
+          <t>317649</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>549273</t>
+          <t>323495</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6364,102 +6364,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6302</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3584</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10283</t>
+          <t>4808</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13615</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>2253</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21775</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>19916</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>13819</t>
+          <t>4650</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28238</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>480</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>189470</t>
+          <t>87677</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>185489</t>
+          <t>85617</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>192188</t>
+          <t>88899</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>218364</t>
+          <t>118934</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>210204</t>
+          <t>116749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>223414</t>
+          <t>120415</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>407834</t>
+          <t>206611</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>399512</t>
+          <t>203670</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>413931</t>
+          <t>208443</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>97,82%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5834</t>
+          <t>5697</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9995</t>
+          <t>8099</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8534</t>
+          <t>5647</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10385</t>
+          <t>9157</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6595</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15585</t>
+          <t>12243</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>886</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>175037</t>
+          <t>148187</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>170876</t>
+          <t>145785</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>177807</t>
+          <t>149882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78249</t>
+          <t>58157</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74266</t>
+          <t>55970</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80639</t>
+          <t>59574</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1236</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>253287</t>
+          <t>206344</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>248087</t>
+          <t>203258</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>257077</t>
+          <t>208430</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16458</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11149</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24223</t>
+          <t>4840</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20395</t>
+          <t>8605</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14813</t>
+          <t>6350</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27846</t>
+          <t>11558</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>36854</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28092</t>
+          <t>9145</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47057</t>
+          <t>15169</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>983</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>291975</t>
+          <t>166554</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>284210</t>
+          <t>164879</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>297284</t>
+          <t>167761</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>992</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>295568</t>
+          <t>173585</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>288117</t>
+          <t>170632</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>301150</t>
+          <t>175840</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>587542</t>
+          <t>340139</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>577339</t>
+          <t>336740</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>596304</t>
+          <t>342764</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,4%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7873</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4432</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13156</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>4794</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16316</t>
+          <t>9195</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>18055</t>
+          <t>9494</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12476</t>
+          <t>7303</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25306</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>142412</t>
+          <t>71696</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>137129</t>
+          <t>70106</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>145853</t>
+          <t>72824</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144886</t>
+          <t>118677</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>138752</t>
+          <t>116221</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>149120</t>
+          <t>120622</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>287299</t>
+          <t>190373</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>280048</t>
+          <t>187466</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>292878</t>
+          <t>192564</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>807</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4416</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6375</t>
+          <t>7583</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8012</t>
+          <t>53769</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>51968</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54796</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9788</t>
+          <t>119025</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>116928</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11222</t>
+          <t>120275</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>930</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>17801</t>
+          <t>172794</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>14407</t>
+          <t>170621</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>19834</t>
+          <t>174770</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>69,33%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>98,07%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>48789</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40291</t>
+          <t>18091</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>62085</t>
+          <t>26041</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26515</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>36005</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>52615</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>46700</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>58738</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
           <t>3,53%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>69776</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>58138</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>84428</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>7,86%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>118565</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>102678</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>138101</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1091442</t>
+          <t>685273</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1078146</t>
+          <t>680842</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1099940</t>
+          <t>688792</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>97,44%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4218</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>752055</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>747054</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>756544</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>96,04%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>95,4%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>96,61%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1437326</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1431203</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1443241</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
           <t>96,47%</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>1739</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1004169</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>989517</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>1015807</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>93,5%</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>92,14%</t>
-        </is>
-      </c>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>94,59%</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>3711</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>2095611</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>2076075</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>2111498</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>94,65%</t>
-        </is>
-      </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
